--- a/results/year_of_drivers.xlsx
+++ b/results/year_of_drivers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQL Projects Includes Learning\SQL_Project_F1\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E3E01D-07C7-4DE4-AAB9-A3A077FBEED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BB10E3-21D8-4913-B501-BFE816A914D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{926F17B1-C278-4F2D-B182-D13192721093}"/>
   </bookViews>
@@ -7880,7 +7880,7 @@
                   </a:schemeClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>season with the average of age of F1 driver </a:t>
+              <a:t>season with the average age of F1 driver</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
@@ -7890,7 +7890,7 @@
                   </a:schemeClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>&gt; 30</a:t>
+              <a:t> above 30</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
@@ -9808,7 +9808,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t> the average age of F1 driver</a:t>
+            <a:t> the average of an F1 driver</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
@@ -10861,8 +10861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776FA55C-E889-4B85-ABB0-D4A94D874B1D}">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T41" sqref="T41"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
